--- a/arquivos/Amostra_VALIDACAO.xlsx
+++ b/arquivos/Amostra_VALIDACAO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariateresaleaocosta/Documents/0_Disciplinas_2024_1/0_ADCateg_2024_1/5_Trabalho/ADC_Arquivos Dados do Trabalho_Gurpos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toled\Documents\Github\UnB\dados-categorizados\arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D433ADA5-9220-7F47-8F33-A2DF0EA855C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50354C5-8E47-4F3B-9060-6A0E3E77046F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="500" windowWidth="11100" windowHeight="5380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Amostra_g16" sheetId="1" r:id="rId1"/>
@@ -28,16 +28,16 @@
     <t>ID</t>
   </si>
   <si>
-    <t>RaioX</t>
+    <t>X1</t>
   </si>
   <si>
-    <t>Estadio</t>
+    <t>X2</t>
   </si>
   <si>
-    <t>Acido</t>
+    <t>X3</t>
   </si>
   <si>
-    <t>Nodal</t>
+    <t>X4</t>
   </si>
 </sst>
 </file>
@@ -381,14 +381,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,7 +407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -422,7 +424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -439,7 +441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -456,7 +458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
@@ -473,7 +475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
@@ -490,7 +492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9</v>
       </c>
@@ -507,7 +509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10</v>
       </c>
@@ -524,7 +526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11</v>
       </c>
@@ -541,7 +543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>12</v>
       </c>
@@ -558,7 +560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>13</v>
       </c>
@@ -575,7 +577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>14</v>
       </c>
@@ -592,7 +594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>15</v>
       </c>
@@ -609,7 +611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>17</v>
       </c>
@@ -626,7 +628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20</v>
       </c>
@@ -643,7 +645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>21</v>
       </c>
@@ -660,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>22</v>
       </c>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>23</v>
       </c>
@@ -694,7 +696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>24</v>
       </c>
@@ -711,7 +713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>25</v>
       </c>
@@ -728,7 +730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>26</v>
       </c>
@@ -745,7 +747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>27</v>
       </c>
@@ -762,7 +764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>31</v>
       </c>
@@ -779,7 +781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32</v>
       </c>
@@ -796,7 +798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>33</v>
       </c>
@@ -813,7 +815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>34</v>
       </c>
@@ -830,7 +832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>36</v>
       </c>
@@ -847,7 +849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>40</v>
       </c>
@@ -864,7 +866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>41</v>
       </c>
@@ -881,7 +883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>42</v>
       </c>
@@ -898,7 +900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>44</v>
       </c>
@@ -915,7 +917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>45</v>
       </c>
@@ -932,7 +934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>46</v>
       </c>
@@ -949,7 +951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>47</v>
       </c>
@@ -966,7 +968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>49</v>
       </c>
@@ -983,7 +985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>50</v>
       </c>
@@ -1000,7 +1002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>52</v>
       </c>
@@ -1017,7 +1019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>54</v>
       </c>
@@ -1034,7 +1036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>56</v>
       </c>
@@ -1051,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>57</v>
       </c>
@@ -1068,7 +1070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>58</v>
       </c>
@@ -1085,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>59</v>
       </c>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>60</v>
       </c>
@@ -1119,7 +1121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>62</v>
       </c>
@@ -1136,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>63</v>
       </c>
@@ -1153,7 +1155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>64</v>
       </c>
@@ -1170,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>65</v>
       </c>
@@ -1187,7 +1189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>66</v>
       </c>
@@ -1204,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>68</v>
       </c>
@@ -1221,7 +1223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>69</v>
       </c>
@@ -1238,7 +1240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>71</v>
       </c>
@@ -1255,7 +1257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>72</v>
       </c>
@@ -1272,7 +1274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>73</v>
       </c>
@@ -1289,7 +1291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>74</v>
       </c>
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>75</v>
       </c>
@@ -1323,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>77</v>
       </c>
@@ -1340,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>78</v>
       </c>
@@ -1357,7 +1359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>80</v>
       </c>
@@ -1374,7 +1376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>81</v>
       </c>
@@ -1391,7 +1393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>84</v>
       </c>
@@ -1408,7 +1410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>85</v>
       </c>
@@ -1425,7 +1427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>86</v>
       </c>
@@ -1442,7 +1444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>87</v>
       </c>
@@ -1459,7 +1461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>88</v>
       </c>
@@ -1476,7 +1478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>89</v>
       </c>
@@ -1493,7 +1495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>90</v>
       </c>
@@ -1510,7 +1512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>91</v>
       </c>
@@ -1527,7 +1529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>92</v>
       </c>
@@ -1544,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>93</v>
       </c>
@@ -1561,7 +1563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>94</v>
       </c>
@@ -1578,7 +1580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>95</v>
       </c>
@@ -1595,7 +1597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>97</v>
       </c>
@@ -1612,7 +1614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>100</v>
       </c>
@@ -1629,7 +1631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>101</v>
       </c>
@@ -1646,7 +1648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>104</v>
       </c>
@@ -1663,7 +1665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>107</v>
       </c>
@@ -1680,7 +1682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>108</v>
       </c>
@@ -1697,7 +1699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>109</v>
       </c>
@@ -1714,7 +1716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>110</v>
       </c>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>111</v>
       </c>
@@ -1748,7 +1750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>114</v>
       </c>
@@ -1765,7 +1767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>115</v>
       </c>
@@ -1782,7 +1784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>116</v>
       </c>
@@ -1799,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>117</v>
       </c>
@@ -1816,7 +1818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>118</v>
       </c>
@@ -1833,7 +1835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>119</v>
       </c>
@@ -1850,7 +1852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>122</v>
       </c>
@@ -1867,7 +1869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>124</v>
       </c>
@@ -1884,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>125</v>
       </c>
@@ -1901,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>128</v>
       </c>
@@ -1918,7 +1920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>129</v>
       </c>
@@ -1935,7 +1937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>130</v>
       </c>
@@ -1952,7 +1954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>131</v>
       </c>
@@ -1969,7 +1971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>132</v>
       </c>
@@ -1986,7 +1988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>133</v>
       </c>
@@ -2003,7 +2005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>134</v>
       </c>
@@ -2020,7 +2022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>136</v>
       </c>
@@ -2037,7 +2039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>138</v>
       </c>
@@ -2054,7 +2056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>139</v>
       </c>
@@ -2071,7 +2073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>140</v>
       </c>
@@ -2088,7 +2090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>143</v>
       </c>
@@ -2105,7 +2107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>144</v>
       </c>
@@ -2122,7 +2124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>146</v>
       </c>
